--- a/3-1-heritage/0-heritage-happenings/2025/01-january-hh/resident-directory/2025-01-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/01-january-hh/resident-directory/2025-01-heritage-resident-directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/01-january-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="759" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F01F875A-7C72-497E-B060-5C12C0DAA925}"/>
+  <xr:revisionPtr revIDLastSave="760" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A51410A4-3B71-4189-AB6E-8364991738FE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="residents" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1093">
   <si>
     <t>First Name</t>
   </si>
@@ -3322,15 +3322,6 @@
   </si>
   <si>
     <t>donna@nextvillagesf.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diana </t>
-  </si>
-  <si>
-    <t>Greer</t>
-  </si>
-  <si>
-    <t>diana94133@pm.me</t>
   </si>
   <si>
     <t>martynolan40@gmail.com</t>
@@ -3963,10 +3954,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -4191,7 +4178,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -5588,7 +5575,7 @@
         <v>293</v>
       </c>
       <c r="F56" s="52" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -8923,7 +8910,7 @@
   </sheetPr>
   <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -8938,7 +8925,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -12966,7 +12953,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>1030</v>
@@ -13686,7 +13673,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>1038</v>
@@ -13805,7 +13792,7 @@
         <v>302</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>301</v>
@@ -14207,7 +14194,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -14521,11 +14508,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA4147-474C-47CD-A0DD-4C67000E8368}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71:D74"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -14541,7 +14528,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>632</v>
@@ -15300,7 +15287,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>751</v>
@@ -15311,57 +15298,46 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>1079</v>
+        <v>1011</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>1011</v>
+        <v>1082</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="11" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>1094</v>
+        <v>1090</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -15396,7 +15372,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>632</v>
@@ -15866,7 +15842,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>632</v>
@@ -16066,7 +16042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C4CAD2-851C-4D78-8B2D-D5100B32C514}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -16084,7 +16060,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -16104,7 +16080,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>34</v>

--- a/3-1-heritage/0-heritage-happenings/2025/01-january-hh/resident-directory/2025-01-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/01-january-hh/resident-directory/2025-01-heritage-resident-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/01-january-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="760" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A51410A4-3B71-4189-AB6E-8364991738FE}"/>
+  <xr:revisionPtr revIDLastSave="802" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88DF0510-77BC-4C86-9FE7-DF0D8C4147D0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="residents" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1092">
   <si>
     <t>First Name</t>
   </si>
@@ -777,9 +777,6 @@
     <t>ludwig@msu.edu</t>
   </si>
   <si>
-    <t>Sisko “Sisi”</t>
-  </si>
-  <si>
     <t>Luopajarvi</t>
   </si>
   <si>
@@ -3159,9 +3156,6 @@
     <t>cgreenway2804@gmail.com</t>
   </si>
   <si>
-    <t>Dark gray: Departed or deceased</t>
-  </si>
-  <si>
     <t>Last</t>
   </si>
   <si>
@@ -3349,6 +3343,9 @@
   </si>
   <si>
     <t>armour</t>
+  </si>
+  <si>
+    <t>Light Blue: Departed or deceased</t>
   </si>
 </sst>
 </file>
@@ -3574,13 +3571,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -3608,6 +3598,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3630,19 +3628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3660,7 +3658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3701,12 +3699,11 @@
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -3715,18 +3712,20 @@
     </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3954,6 +3953,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -4159,8 +4162,8 @@
   <dimension ref="A1:I1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4170,7 +4173,7 @@
     <col min="3" max="3" width="9.15234375" style="17" customWidth="1"/>
     <col min="4" max="4" width="14.4609375" style="17" customWidth="1"/>
     <col min="5" max="5" width="13.4609375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="26.4609375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="26.4609375" style="40" customWidth="1"/>
     <col min="7" max="8" width="10.4609375" style="17" customWidth="1"/>
     <col min="9" max="9" width="7.15234375" style="17" customWidth="1"/>
     <col min="10" max="16384" width="11.15234375" style="17"/>
@@ -4178,7 +4181,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -4192,7 +4195,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -4221,7 +4224,7 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3"/>
@@ -4274,7 +4277,7 @@
       <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -4301,7 +4304,7 @@
       <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -4328,7 +4331,7 @@
       <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>40</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -4351,7 +4354,7 @@
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="40" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -4369,10 +4372,10 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -4393,10 +4396,10 @@
       <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -4422,7 +4425,7 @@
       <c r="E10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="40" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -4449,7 +4452,7 @@
       <c r="E11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="40" t="s">
         <v>67</v>
       </c>
       <c r="G11" s="1"/>
@@ -4469,7 +4472,7 @@
         <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>72</v>
@@ -4545,7 +4548,7 @@
       <c r="E15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="41" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -4572,7 +4575,7 @@
       <c r="E16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="42" t="s">
         <v>93</v>
       </c>
       <c r="G16" s="1"/>
@@ -4599,7 +4602,7 @@
       <c r="E17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="40" t="s">
         <v>98</v>
       </c>
       <c r="G17" s="3"/>
@@ -4649,7 +4652,7 @@
       <c r="E19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="40" t="s">
         <v>109</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -4672,7 +4675,7 @@
       <c r="E20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="40" t="s">
         <v>115</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -4698,7 +4701,7 @@
       <c r="E21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="40" t="s">
         <v>121</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -4725,7 +4728,7 @@
       <c r="E22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="40" t="s">
         <v>126</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -4738,10 +4741,10 @@
     </row>
     <row r="23" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>1024</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>1025</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
@@ -4750,15 +4753,15 @@
         <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>1028</v>
+        <v>1025</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>1027</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -4800,7 +4803,7 @@
       <c r="E25" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="40" t="s">
         <v>134</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -4827,7 +4830,7 @@
       <c r="E26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="41" t="s">
         <v>140</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -4856,7 +4859,7 @@
       <c r="E27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="40" t="s">
         <v>146</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -4933,7 +4936,7 @@
       <c r="E30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="40" t="s">
         <v>159</v>
       </c>
       <c r="G30" s="3"/>
@@ -4958,7 +4961,7 @@
       <c r="E31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="40" t="s">
         <v>165</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -4985,7 +4988,7 @@
       <c r="E32" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="40" t="s">
         <v>170</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -5034,7 +5037,7 @@
       <c r="E34" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="40" t="s">
         <v>180</v>
       </c>
       <c r="G34" s="1"/>
@@ -5061,7 +5064,7 @@
       <c r="E35" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="40" t="s">
         <v>186</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -5084,7 +5087,7 @@
       <c r="E36" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="41" t="s">
         <v>192</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -5107,7 +5110,7 @@
       <c r="E37" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="40" t="s">
         <v>198</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -5130,7 +5133,7 @@
       <c r="E38" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="40" t="s">
         <v>203</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -5203,7 +5206,7 @@
       <c r="E41" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F41" s="41" t="s">
+      <c r="F41" s="40" t="s">
         <v>219</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -5226,7 +5229,7 @@
       <c r="E42" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F42" s="41" t="s">
+      <c r="F42" s="40" t="s">
         <v>219</v>
       </c>
       <c r="G42" s="3"/>
@@ -5253,7 +5256,7 @@
       <c r="E43" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="40" t="s">
         <v>228</v>
       </c>
       <c r="G43" s="3"/>
@@ -5278,7 +5281,7 @@
       <c r="E44" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="41" t="s">
         <v>234</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -5290,47 +5293,47 @@
     </row>
     <row r="45" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>236</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="40" t="s">
         <v>238</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>239</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>241</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>242</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="40" t="s">
         <v>244</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>245</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>22</v>
@@ -5342,46 +5345,46 @@
     </row>
     <row r="47" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>252</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="G48" s="1"/>
       <c r="I48" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -5389,42 +5392,42 @@
         <v>161</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="F49" s="41" t="s">
+      <c r="I49" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>262</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="40" t="s">
         <v>264</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>265</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>166</v>
@@ -5432,94 +5435,94 @@
     </row>
     <row r="51" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="40" t="s">
         <v>269</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>270</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="40" t="s">
         <v>275</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>276</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>279</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="G53" s="1"/>
       <c r="I53" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B54" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>284</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="40" t="s">
         <v>286</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>287</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>53</v>
@@ -5534,19 +5537,19 @@
         <v>172</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="40" t="s">
         <v>290</v>
-      </c>
-      <c r="F55" s="41" t="s">
-        <v>291</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>22</v>
@@ -5560,97 +5563,97 @@
     </row>
     <row r="56" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F56" s="52" t="s">
-        <v>1084</v>
+        <v>292</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>1082</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" s="17" t="s">
         <v>295</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>296</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="F57" s="41" t="s">
+      <c r="I57" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>301</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>302</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="F58" s="41" t="s">
+      <c r="I58" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>307</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>308</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -5658,42 +5661,42 @@
         <v>9</v>
       </c>
       <c r="B60" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="40" t="s">
         <v>315</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>316</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>318</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>319</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>53</v>
@@ -5702,30 +5705,30 @@
         <v>15</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>323</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>324</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -5733,32 +5736,32 @@
         <v>128</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="40" t="s">
         <v>330</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>331</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>333</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>334</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>19</v>
@@ -5767,76 +5770,76 @@
         <v>38</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F64" s="40" t="s">
         <v>335</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>336</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F65" s="40" t="s">
         <v>339</v>
-      </c>
-      <c r="F65" s="41" t="s">
-        <v>340</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>342</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>343</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="40" t="s">
         <v>345</v>
-      </c>
-      <c r="F66" s="41" t="s">
-        <v>346</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>348</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>349</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>19</v>
@@ -5845,10 +5848,10 @@
         <v>190</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F67" s="40" t="s">
         <v>350</v>
-      </c>
-      <c r="F67" s="41" t="s">
-        <v>351</v>
       </c>
       <c r="G67" s="1"/>
       <c r="I67" s="4" t="s">
@@ -5857,70 +5860,70 @@
     </row>
     <row r="68" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="40" t="s">
         <v>354</v>
-      </c>
-      <c r="F68" s="41" t="s">
-        <v>355</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="B69" s="17" t="s">
         <v>356</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>357</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F69" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="F69" s="41" t="s">
+      <c r="I69" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="41" t="s">
         <v>363</v>
-      </c>
-      <c r="F70" s="42" t="s">
-        <v>364</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>223</v>
@@ -5928,22 +5931,22 @@
     </row>
     <row r="71" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>365</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>366</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="40" t="s">
         <v>368</v>
-      </c>
-      <c r="F71" s="41" t="s">
-        <v>369</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>175</v>
@@ -5951,101 +5954,101 @@
     </row>
     <row r="72" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>370</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>371</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B73" s="17" t="s">
         <v>375</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>376</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B74" s="17" t="s">
         <v>380</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>381</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="F74" s="41" t="s">
+      <c r="G74" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F75" s="40" t="s">
         <v>388</v>
-      </c>
-      <c r="F75" s="41" t="s">
-        <v>389</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -6053,18 +6056,18 @@
         <v>100</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F76" s="44"/>
+      <c r="F76" s="43"/>
       <c r="G76" s="3" t="s">
         <v>53</v>
       </c>
@@ -6075,26 +6078,26 @@
     </row>
     <row r="77" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B77" s="17" t="s">
         <v>394</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>395</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -8910,7 +8913,7 @@
   </sheetPr>
   <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -8925,7 +8928,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -8934,31 +8937,31 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>53</v>
@@ -8970,55 +8973,55 @@
         <v>104</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -9028,24 +9031,24 @@
         <v>174</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -9055,10 +9058,10 @@
         <v>190</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>53</v>
@@ -9067,15 +9070,15 @@
         <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
@@ -9085,34 +9088,34 @@
         <v>190</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="3" t="s">
@@ -9120,64 +9123,64 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>532</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>533</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>79</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
@@ -9187,25 +9190,25 @@
         <v>168</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>546</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>547</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
@@ -9214,10 +9217,10 @@
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>548</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>549</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>22</v>
@@ -9226,30 +9229,30 @@
         <v>15</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -9260,10 +9263,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="J15" s="9">
         <v>44763</v>
@@ -9271,43 +9274,43 @@
     </row>
     <row r="16" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
       <c r="J16" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>22</v>
@@ -9316,21 +9319,21 @@
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -9340,103 +9343,103 @@
         <v>168</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>580</v>
       </c>
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>584</v>
       </c>
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
@@ -9446,32 +9449,32 @@
         <v>212</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>594</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>595</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30" t="s">
@@ -9479,36 +9482,36 @@
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="J25" s="33" t="s">
         <v>596</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
@@ -9518,133 +9521,133 @@
         <v>124</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="I32" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35"/>
@@ -9659,17 +9662,17 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
@@ -9677,10 +9680,10 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>630</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -9723,8 +9726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C4F1CA-A107-47E1-B61D-684F7BB5060E}">
   <dimension ref="A1:Z173"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -9739,7 +9742,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -9751,7 +9754,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -9777,19 +9780,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="str">
+      <c r="A3" s="53" t="str">
         <v>Barbara Anderson</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="53" t="str">
         <v>422 P</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="53" t="str">
         <v>415-244-4882</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="53">
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="str">
+      <c r="E3" s="53" t="str">
         <v>09/10</v>
       </c>
     </row>
@@ -9929,20 +9932,20 @@
         <v>07/15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="str">
+    <row r="12" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="54" t="str">
         <v>Harry Copeland</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="54" t="str">
         <v>121 P</v>
       </c>
-      <c r="C12" s="11" t="str">
+      <c r="C12" s="54" t="str">
         <v>415 673-2884</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="54">
         <v>0</v>
       </c>
-      <c r="E12" s="11" t="str">
+      <c r="E12" s="54" t="str">
         <v>04/01</v>
       </c>
     </row>
@@ -10117,19 +10120,19 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="45" t="str">
+      <c r="A23" s="44" t="str">
         <v>Cooby Greenway</v>
       </c>
-      <c r="B23" s="45" t="str">
+      <c r="B23" s="44" t="str">
         <v>1530 Francisco</v>
       </c>
-      <c r="C23" s="45" t="str">
+      <c r="C23" s="44" t="str">
         <v>202 320-4577</v>
       </c>
-      <c r="D23" s="45" t="str">
+      <c r="D23" s="44" t="str">
         <v>cgreenway2804@gmail.com</v>
       </c>
-      <c r="E23" s="45" t="str">
+      <c r="E23" s="44" t="str">
         <v>02/06</v>
       </c>
     </row>
@@ -10492,7 +10495,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
-        <v>Sisko “Sisi” Luopajarvi</v>
+        <v>Sisi Luopajarvi</v>
       </c>
       <c r="B45" s="11" t="str">
         <v>326 M</v>
@@ -10644,19 +10647,19 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="39" t="str">
+      <c r="A54" s="38" t="str">
         <v>Kay Narron</v>
       </c>
-      <c r="B54" s="39" t="str">
+      <c r="B54" s="38" t="str">
         <v>418 P</v>
       </c>
-      <c r="C54" s="39" t="str">
+      <c r="C54" s="38" t="str">
         <v>530 401-8491</v>
       </c>
-      <c r="D54" s="39" t="str">
+      <c r="D54" s="38" t="str">
         <v>kay.narron@gmail.com</v>
       </c>
-      <c r="E54" s="39" t="str">
+      <c r="E54" s="38" t="str">
         <v>01/04</v>
       </c>
     </row>
@@ -10780,19 +10783,19 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="46" t="str">
+      <c r="A62" s="54" t="str">
         <v>Robert Segrin</v>
       </c>
-      <c r="B62" s="46" t="str">
+      <c r="B62" s="54" t="str">
         <v>121 P</v>
       </c>
-      <c r="C62" s="46" t="str">
+      <c r="C62" s="54" t="str">
         <v>415 673-1333</v>
       </c>
-      <c r="D62" s="46">
+      <c r="D62" s="54">
         <v>0</v>
       </c>
-      <c r="E62" s="46" t="str">
+      <c r="E62" s="54" t="str">
         <v>08/23</v>
       </c>
     </row>
@@ -11018,52 +11021,52 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="11" t="str">
+      <c r="A76" s="52" t="str">
         <v>Shirley Yawitz</v>
       </c>
-      <c r="B76" s="11" t="str">
+      <c r="B76" s="52" t="str">
         <v>246 M</v>
       </c>
-      <c r="C76" s="11" t="str">
+      <c r="C76" s="52" t="str">
         <v>415 929-6992</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="52">
         <v>0</v>
       </c>
-      <c r="E76" s="11" t="str">
+      <c r="E76" s="52" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="34" t="str">
+      <c r="A77" s="53" t="str">
         <v>Flora Zagorites</v>
       </c>
-      <c r="B77" s="34" t="str">
+      <c r="B77" s="53" t="str">
         <v>238 M</v>
       </c>
-      <c r="C77" s="34" t="str">
+      <c r="C77" s="53" t="str">
         <v>415 710-2771</v>
       </c>
-      <c r="D77" s="34">
+      <c r="D77" s="53">
         <v>0</v>
       </c>
-      <c r="E77" s="34" t="str">
+      <c r="E77" s="53" t="str">
         <v>02/16</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
@@ -11071,20 +11074,20 @@
       <c r="E81" s="24"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A82" s="34" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
+      <c r="A82" s="53" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B84" s="13" t="s">
         <v>403</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>404</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>4</v>
@@ -11092,42 +11095,42 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B85" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>406</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="B86" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="C86" s="19" t="s">
         <v>409</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>410</v>
       </c>
       <c r="D86" s="19"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>411</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>412</v>
       </c>
       <c r="D87" s="19"/>
     </row>
     <row r="88" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>4</v>
@@ -11160,11 +11163,11 @@
     </row>
     <row r="89" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="7"/>
@@ -11192,14 +11195,14 @@
     </row>
     <row r="90" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>417</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>418</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -11226,11 +11229,11 @@
     </row>
     <row r="91" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37" t="s">
         <v>419</v>
-      </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38" t="s">
-        <v>420</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="7"/>
@@ -11258,11 +11261,11 @@
     </row>
     <row r="92" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37" t="s">
         <v>421</v>
-      </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38" t="s">
-        <v>422</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="7"/>
@@ -11290,11 +11293,11 @@
     </row>
     <row r="93" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37" t="s">
         <v>423</v>
-      </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38" t="s">
-        <v>424</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="7"/>
@@ -11322,11 +11325,11 @@
     </row>
     <row r="94" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37" t="s">
         <v>425</v>
-      </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38" t="s">
-        <v>426</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="7"/>
@@ -11354,10 +11357,10 @@
     </row>
     <row r="95" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="11"/>
@@ -11386,16 +11389,16 @@
     </row>
     <row r="96" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="C96" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="C96" s="38" t="s">
+      <c r="D96" s="19" t="s">
         <v>431</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>432</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="7"/>
@@ -11422,16 +11425,16 @@
     </row>
     <row r="97" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="D97" s="11" t="s">
         <v>435</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>436</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="7"/>
@@ -11458,16 +11461,16 @@
     </row>
     <row r="98" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="D98" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>440</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="7"/>
@@ -11494,16 +11497,16 @@
     </row>
     <row r="99" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="D99" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>444</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -11530,16 +11533,16 @@
     </row>
     <row r="100" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B100" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="C100" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="C100" s="38" t="s">
+      <c r="D100" s="19" t="s">
         <v>447</v>
-      </c>
-      <c r="D100" s="19" t="s">
-        <v>448</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -11566,16 +11569,16 @@
     </row>
     <row r="101" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="B101" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="B101" s="38" t="s">
+      <c r="C101" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="C101" s="38" t="s">
+      <c r="D101" s="19" t="s">
         <v>451</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>452</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -11602,16 +11605,16 @@
     </row>
     <row r="102" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B102" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="C102" s="37" t="s">
         <v>454</v>
       </c>
-      <c r="C102" s="38" t="s">
+      <c r="D102" s="19" t="s">
         <v>455</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>456</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -11638,16 +11641,16 @@
     </row>
     <row r="103" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B103" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="C103" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="C103" s="38" t="s">
+      <c r="D103" s="19" t="s">
         <v>459</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>460</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -11674,16 +11677,16 @@
     </row>
     <row r="104" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="B104" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="C104" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="D104" s="19" t="s">
         <v>463</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>464</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="7"/>
@@ -11710,16 +11713,16 @@
     </row>
     <row r="105" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="B105" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="C105" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="D105" s="19" t="s">
         <v>467</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>468</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="7"/>
@@ -11746,16 +11749,16 @@
     </row>
     <row r="106" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="B106" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="C106" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="C106" s="38" t="s">
+      <c r="D106" s="19" t="s">
         <v>471</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>472</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="7"/>
@@ -11782,14 +11785,14 @@
     </row>
     <row r="107" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="B107" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="C107" s="37"/>
+      <c r="D107" s="39" t="s">
         <v>474</v>
-      </c>
-      <c r="C107" s="38"/>
-      <c r="D107" s="40" t="s">
-        <v>475</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="7"/>
@@ -11816,16 +11819,16 @@
     </row>
     <row r="108" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="B108" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="C108" s="37" t="s">
         <v>477</v>
       </c>
-      <c r="C108" s="38" t="s">
+      <c r="D108" s="19" t="s">
         <v>478</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>479</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="7"/>
@@ -11852,16 +11855,16 @@
     </row>
     <row r="109" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="B109" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="C109" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="C109" s="38" t="s">
+      <c r="D109" s="19" t="s">
         <v>482</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>483</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="7"/>
@@ -11888,16 +11891,16 @@
     </row>
     <row r="110" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="B110" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="C110" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="D110" s="19" t="s">
         <v>486</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>487</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="7"/>
@@ -11924,16 +11927,16 @@
     </row>
     <row r="111" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B111" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="C111" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="C111" s="38" t="s">
+      <c r="D111" s="19" t="s">
         <v>490</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>491</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="7"/>
@@ -11959,8 +11962,8 @@
       <c r="Z111" s="7"/>
     </row>
     <row r="112" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="36" t="s">
-        <v>492</v>
+      <c r="A112" s="35" t="s">
+        <v>491</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="7"/>
@@ -11989,8 +11992,8 @@
       <c r="Z112" s="7"/>
     </row>
     <row r="113" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="35" t="s">
-        <v>493</v>
+      <c r="A113" s="34" t="s">
+        <v>492</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -12020,11 +12023,11 @@
     </row>
     <row r="114" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B114" s="30"/>
-      <c r="C114" s="38" t="s">
-        <v>422</v>
+      <c r="C114" s="37" t="s">
+        <v>421</v>
       </c>
       <c r="D114" s="11"/>
       <c r="F114" s="7"/>
@@ -12051,10 +12054,10 @@
     </row>
     <row r="115" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="D115" s="11"/>
       <c r="F115" s="7"/>
@@ -12081,11 +12084,11 @@
     </row>
     <row r="116" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="7"/>
@@ -12291,7 +12294,7 @@
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;14&amp;KC00000Heritage on the Marina&amp;R&amp;"-,Bold Italic"&amp;14&amp;KC00000Heritage Happenings Resident Directory</oddHeader>
-    <oddFooter>&amp;L&amp;14&amp;KC00000November 2024&amp;R&amp;14&amp;KC00000&amp;P</oddFooter>
+    <oddFooter>&amp;L&amp;14&amp;KC00000February 2024&amp;R&amp;14&amp;KC00000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -12896,7 +12899,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <v>Sisko “Sisi” Luopajarvi</v>
+        <v>Sisi Luopajarvi</v>
       </c>
       <c r="B73" t="str">
         <v>12/13</v>
@@ -12953,30 +12956,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>9</v>
@@ -12987,16 +12990,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>25</v>
@@ -13004,13 +13007,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="19" t="s">
         <v>645</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>646</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>36</v>
@@ -13021,19 +13024,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>649</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -13044,7 +13047,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>75</v>
@@ -13055,13 +13058,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>80</v>
@@ -13072,13 +13075,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>100</v>
@@ -13089,13 +13092,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>655</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>656</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>100</v>
@@ -13106,13 +13109,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>657</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>658</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>111</v>
@@ -13123,13 +13126,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>48</v>
@@ -13140,16 +13143,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>143</v>
@@ -13157,13 +13160,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="B13" s="51" t="s">
         <v>733</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="C13" s="11" t="s">
         <v>734</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>735</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>161</v>
@@ -13174,13 +13177,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>742</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>743</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>161</v>
@@ -13191,13 +13194,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>736</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>737</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>161</v>
@@ -13214,7 +13217,7 @@
         <v>167</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>161</v>
@@ -13225,13 +13228,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>161</v>
@@ -13242,13 +13245,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>161</v>
@@ -13262,10 +13265,10 @@
         <v>188</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>161</v>
@@ -13276,13 +13279,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>739</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>740</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>161</v>
@@ -13293,13 +13296,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="B21" s="51" t="s">
         <v>730</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="C21" s="11" t="s">
         <v>731</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>732</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>161</v>
@@ -13310,13 +13313,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="19" t="s">
         <v>668</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>669</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>161</v>
@@ -13327,47 +13330,47 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>172</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>672</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>673</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>172</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="40" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="39" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="40" t="s">
-        <v>1062</v>
+      <c r="C25" s="39" t="s">
+        <v>1060</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>188</v>
@@ -13377,14 +13380,14 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="40" t="s">
-        <v>765</v>
-      </c>
-      <c r="B26" s="40" t="s">
+      <c r="A26" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="B26" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>1063</v>
+      <c r="C26" s="39" t="s">
+        <v>1061</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>188</v>
@@ -13395,13 +13398,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>675</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>199</v>
@@ -13412,13 +13415,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>205</v>
@@ -13429,13 +13432,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>211</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>210</v>
@@ -13446,13 +13449,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>211</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>210</v>
@@ -13463,13 +13466,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>230</v>
@@ -13480,87 +13483,87 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D33" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>682</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>683</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>161</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>684</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>685</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>161</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>1071</v>
-      </c>
       <c r="D36" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -13568,101 +13571,101 @@
         <v>224</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D37" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>687</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>688</v>
-      </c>
       <c r="D38" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>690</v>
-      </c>
       <c r="D39" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>694</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>695</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>691</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>692</v>
-      </c>
       <c r="D42" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -13670,339 +13673,339 @@
         <v>194</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>1087</v>
+        <v>1045</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>1085</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>698</v>
-      </c>
       <c r="D45" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>699</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>700</v>
-      </c>
       <c r="D46" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>702</v>
-      </c>
       <c r="D47" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>703</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>704</v>
-      </c>
       <c r="D48" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>706</v>
-      </c>
       <c r="D49" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>1088</v>
+        <v>301</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>1086</v>
       </c>
       <c r="D50" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="19" t="s">
         <v>709</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>710</v>
-      </c>
       <c r="D51" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>712</v>
-      </c>
       <c r="D52" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D53" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D54" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>719</v>
-      </c>
       <c r="D55" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>717</v>
-      </c>
       <c r="D56" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D57" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="19" t="s">
         <v>721</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>722</v>
-      </c>
       <c r="D58" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>375</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>723</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>724</v>
-      </c>
       <c r="D59" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>375</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>729</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>1041</v>
+      <c r="C60" s="39" t="s">
+        <v>1039</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>727</v>
-      </c>
       <c r="D61" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -14214,290 +14217,290 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="49" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="49" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="49" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="49" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="49" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="49" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="49" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="49" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="49" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="49" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="49" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="49" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="49" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="49" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="49" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>1060</v>
+      <c r="A24" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="49" t="s">
         <v>241</v>
       </c>
+      <c r="B25" s="49" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="49" t="s">
         <v>246</v>
       </c>
+      <c r="B26" s="49" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="B27" s="51" t="s">
+      <c r="A27" s="49" t="s">
         <v>283</v>
       </c>
+      <c r="B27" s="49" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="49" t="s">
         <v>295</v>
       </c>
+      <c r="B28" s="49" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="B29" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="B30" s="51" t="s">
+      <c r="A30" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="49" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="B31" s="51" t="s">
+      <c r="A31" s="49" t="s">
         <v>333</v>
       </c>
+      <c r="B31" s="49" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>338</v>
+      <c r="A32" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>283</v>
+      <c r="A33" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="B34" s="51" t="s">
+      <c r="A34" s="49" t="s">
         <v>356</v>
       </c>
+      <c r="B34" s="49" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="51" t="s">
-        <v>371</v>
-      </c>
-      <c r="B35" s="51" t="s">
+      <c r="A35" s="49" t="s">
         <v>370</v>
       </c>
+      <c r="B35" s="49" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="51" t="s">
-        <v>381</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>387</v>
+      <c r="A36" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B37" s="51" t="s">
+      <c r="A37" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="B37" s="49" t="s">
         <v>100</v>
       </c>
     </row>
@@ -14528,541 +14531,541 @@
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>632</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>871</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>879</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>753</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>843</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>853</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>766</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>788</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>763</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>836</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>840</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>811</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>845</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>811</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>894</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>1016</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>778</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>779</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>873</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>856</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>785</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>823</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>861</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>862</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>773</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>793</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>881</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>806</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>776</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>814</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>771</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="47" t="s">
         <v>759</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>756</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>876</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>891</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>1018</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>761</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>859</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46" s="39" t="s">
         <v>821</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>897</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>768</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>825</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>768</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -15070,76 +15073,76 @@
         <v>9</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>819</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>782</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>817</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>850</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>747</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>888</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>1013</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -15147,197 +15150,197 @@
         <v>133</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="C57" s="48" t="s">
         <v>899</v>
-      </c>
-      <c r="C57" s="50" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>848</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>828</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>884</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>809</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>867</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>868</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>1010</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="C63" s="19" t="s">
         <v>1011</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>798</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>864</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>865</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>745</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>834</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>751</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -15372,114 +15375,114 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>633</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>911</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>914</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>903</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>904</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>908</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>916</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>924</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>927</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>930</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -15487,97 +15490,97 @@
         <v>48</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>932</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>934</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>935</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>936</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>938</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>939</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>941</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>942</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>943</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>944</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>942</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>945</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>946</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>947</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>948</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -15585,228 +15588,228 @@
         <v>128</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>950</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>951</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>953</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>918</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>919</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>954</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>956</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>957</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>958</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>959</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>960</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>961</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>962</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>472</v>
+        <v>1055</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>471</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>963</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>965</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>967</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>969</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>970</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>974</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>975</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>976</v>
-      </c>
       <c r="D26" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>979</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="D34" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>910</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="D35" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>921</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>971</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="D36" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>972</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -15832,201 +15835,201 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.23046875" style="47" customWidth="1"/>
-    <col min="2" max="2" width="14.4609375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="35.4609375" style="47" customWidth="1"/>
-    <col min="4" max="4" width="38" style="47" customWidth="1"/>
-    <col min="5" max="5" width="15.07421875" style="47" customWidth="1"/>
-    <col min="6" max="16384" width="9.23046875" style="47"/>
+    <col min="1" max="1" width="14.23046875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="14.4609375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="35.4609375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="38" style="45" customWidth="1"/>
+    <col min="5" max="5" width="15.07421875" style="45" customWidth="1"/>
+    <col min="6" max="16384" width="9.23046875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>632</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>633</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="45" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>987</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>988</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>638</v>
+      </c>
+      <c r="B4" s="45" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>988</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>989</v>
-      </c>
-      <c r="C3" s="47" t="s">
+      <c r="C4" s="45" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>639</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>998</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="B5" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>908</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>981</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>824</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>979</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>983</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>984</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>983</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>992</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>656</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>994</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
+        <v>646</v>
+      </c>
+      <c r="B20" s="45" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>991</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>648</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>909</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>982</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
-        <v>825</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>980</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
-        <v>984</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>985</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>984</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>993</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="D20" s="45" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B21" s="45" t="s">
         <v>1002</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="D21" s="45" t="s">
         <v>1003</v>
       </c>
-      <c r="C11" s="47" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>764</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
-        <v>657</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>995</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
-        <v>647</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
-        <v>765</v>
-      </c>
-      <c r="B22" s="47" t="s">
+      <c r="D22" s="45" t="s">
         <v>1005</v>
       </c>
-      <c r="D22" s="47" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+      <c r="B23" s="45" t="s">
         <v>1007</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="D23" s="45" t="s">
         <v>1008</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>1009</v>
       </c>
     </row>
   </sheetData>
@@ -16060,7 +16063,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -16069,10 +16072,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -16080,7 +16083,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>34</v>
@@ -16088,7 +16091,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
   </sheetData>
